--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_fiscal_position_tax.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_fiscal_position_tax.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">_requirements</t>
+  </si>
+  <si>
     <t xml:space="preserve">position_id</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t xml:space="preserve">z0bug.fiscalpos_rc_1</t>
   </si>
   <si>
+    <t xml:space="preserve">l10n_it_reverse_charge</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.fiscalpos_rc</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t xml:space="preserve">z0bug.fiscalpos_sp_1</t>
   </si>
   <si>
+    <t xml:space="preserve">l10n_it_split_payment</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.fiscalpos_sp</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_li_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_dichiarazione_intento or l10n_it_lettera_intento </t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_li</t>
@@ -216,18 +228,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,145 +256,164 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_fiscal_position_tax.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_fiscal_position_tax.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -128,6 +128,51 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.tax_10v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_at_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_eu-1-AT-v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_at_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_eu-3-AT-v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_be_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_eu-1-BE-v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_be_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_eu-3-BE-v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_nl_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_eu-1-NL-v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.fiscalpos_nl_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_eu-3-NL-v</t>
   </si>
 </sst>
 </file>
@@ -228,19 +273,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,6 +459,96 @@
       </c>
       <c r="E11" s="1" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_fiscal_position_tax.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_fiscal_position_tax.xlsx
@@ -136,13 +136,13 @@
     <t xml:space="preserve">z0bug.fiscalpos_at</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_eu-1-AT-v</t>
+    <t xml:space="preserve">z0bug.tax_1-AT-v</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_at_2</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_eu-3-AT-v</t>
+    <t xml:space="preserve">z0bug.tax_2-AT-v</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_be_1</t>
@@ -151,13 +151,13 @@
     <t xml:space="preserve">z0bug.fiscalpos_be</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_eu-1-BE-v</t>
+    <t xml:space="preserve">z0bug.tax_1-BE-v</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_be_2</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_eu-3-BE-v</t>
+    <t xml:space="preserve">z0bug.tax_2-BE-v</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_nl_1</t>
@@ -166,13 +166,13 @@
     <t xml:space="preserve">z0bug.fiscalpos_nl</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_eu-1-NL-v</t>
+    <t xml:space="preserve">z0bug.tax_1-NL-v</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.fiscalpos_nl_2</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_eu-3-NL-v</t>
+    <t xml:space="preserve">z0bug.tax_2-NL-v</t>
   </si>
 </sst>
 </file>
@@ -279,7 +279,7 @@
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.62"/>
